--- a/DASH_in_USD.xlsx
+++ b/DASH_in_USD.xlsx
@@ -11932,7 +11932,7 @@
         <v>43641</v>
       </c>
       <c r="B502">
-        <v>176.01</v>
+        <v>174.81</v>
       </c>
       <c r="C502">
         <v>179.9</v>
